--- a/Test Data/TC_51410_Verify_PCH800_PCS800_POS800_PNI800_FBI800_Slot_Allocation_In_Backplane.xlsx
+++ b/Test Data/TC_51410_Verify_PCH800_PCS800_POS800_PNI800_FBI800_Slot_Allocation_In_Backplane.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDFCB82-4426-4BA8-B67A-635E8440D7A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBD797A-C2AD-4132-8636-1255383DF6A5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
   <si>
     <t>Color Codes</t>
   </si>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,11 +846,11 @@
       <c r="K10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>24</v>
+      <c r="L10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="s">
         <v>33</v>
@@ -875,7 +875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB965877-47D5-4195-9320-0CA4DC7672EB}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
